--- a/Data/raw/pitcher/임준혁_1984-10-09.xlsx
+++ b/Data/raw/pitcher/임준혁_1984-10-09.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2017" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2018" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,22 +52,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -491,12 +488,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -2325,7 +2322,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2396,12 +2393,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -8397,7 +8394,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -8468,12 +8465,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -8693,6 +8690,8 @@
           <t>0.006</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -8830,6 +8829,8 @@
           <t>-0.009</t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>4일</t>
@@ -8967,6 +8968,8 @@
           <t>-0.012</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -9104,6 +9107,8 @@
           <t>0.006</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
           <t>3일</t>
@@ -9241,6 +9246,8 @@
           <t>-0.067</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
           <t>5일</t>
@@ -9378,1992 +9385,6 @@
           <t>0.000</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>상대</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>선발</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>이닝</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>실점</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>자책</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>타자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>타수</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>안타</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2타</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>3타</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>홈런</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>볼넷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>고4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>사구</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>투구</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WHIP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>타율</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>출루율</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>OPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>avLI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RE24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WPA</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>GSC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>간격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05-18</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>L 1:5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1.167</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.006</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05-22</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>넥센</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L 4:10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.429</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-0.63</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-0.009</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L 3:11</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-0.012</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>06-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KT</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>W 6:1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.313</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.006</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>06-07</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>L 2:6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1.333</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-1.45</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-0.067</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06-15</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>L 6:14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.387</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.167</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>상대</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>선발</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>이닝</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>실점</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>자책</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>타자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>타수</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>안타</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2타</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>3타</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>홈런</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>볼넷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>고4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>사구</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>투구</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WHIP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>타율</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>출루율</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>OPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>avLI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RE24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WPA</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>GSC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>간격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05-18</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>L 1:5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1.167</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.006</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05-22</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>넥센</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L 4:10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.429</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-0.63</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-0.009</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L 3:11</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-0.012</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>06-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KT</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>W 6:1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.313</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.006</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>06-07</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>L 2:6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1.333</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-1.45</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-0.067</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06-15</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>L 6:14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.387</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.167</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
@@ -11373,6 +9394,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>